--- a/Тестирование.xlsx
+++ b/Тестирование.xlsx
@@ -5,26 +5,28 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\interview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="682"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="3" sheetId="3" r:id="rId3"/>
-    <sheet name="4" sheetId="4" r:id="rId4"/>
-    <sheet name="5-ООП" sheetId="5" r:id="rId5"/>
-    <sheet name="6-ООП" sheetId="6" r:id="rId6"/>
-    <sheet name="7-ООП" sheetId="7" r:id="rId7"/>
-    <sheet name="8-ООП" sheetId="8" r:id="rId8"/>
-    <sheet name="9-HashMap" sheetId="9" r:id="rId9"/>
-    <sheet name="10-HashMap" sheetId="10" r:id="rId10"/>
-    <sheet name="11-HashMap" sheetId="11" r:id="rId11"/>
-    <sheet name="12-ArrayList" sheetId="12" r:id="rId12"/>
-    <sheet name="13-ArrayList" sheetId="13" r:id="rId13"/>
+    <sheet name="Введение" sheetId="15" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId2"/>
+    <sheet name="2" sheetId="2" r:id="rId3"/>
+    <sheet name="3" sheetId="3" r:id="rId4"/>
+    <sheet name="4" sheetId="4" r:id="rId5"/>
+    <sheet name="5-ООП" sheetId="5" r:id="rId6"/>
+    <sheet name="6-ООП" sheetId="6" r:id="rId7"/>
+    <sheet name="7-ООП" sheetId="7" r:id="rId8"/>
+    <sheet name="8-ООП" sheetId="8" r:id="rId9"/>
+    <sheet name="9-HashMap" sheetId="9" r:id="rId10"/>
+    <sheet name="10-HashMap" sheetId="10" r:id="rId11"/>
+    <sheet name="11-HashMap" sheetId="11" r:id="rId12"/>
+    <sheet name="12-ArrayList" sheetId="12" r:id="rId13"/>
+    <sheet name="13-ArrayList" sheetId="13" r:id="rId14"/>
+    <sheet name="14-Exception" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>Задача</t>
   </si>
@@ -273,6 +275,56 @@
   </si>
   <si>
     <t>List after sort: [Black, Green, Orange, Red, White]</t>
+  </si>
+  <si>
+    <t>Напишите функцию по извлечению квадратного корня.</t>
+  </si>
+  <si>
+    <t>Уонтроль</t>
+  </si>
+  <si>
+    <t>MyIllegalArgumentException</t>
+  </si>
+  <si>
+    <t>Тест состоит из 4 блоков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предлагается сделать по одному заданию из каждого блока. </t>
+  </si>
+  <si>
+    <t>Результат выложить на github</t>
+  </si>
+  <si>
+    <t>Условия тестирования</t>
+  </si>
+  <si>
+    <t>Блок</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>URL на Github</t>
+  </si>
+  <si>
+    <t>ФИО:</t>
+  </si>
+  <si>
+    <r>
+      <t>Заполнить таблицу ниже и отправить по адресу</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IAYukhnovskiy.SBT@sberbank.ru</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -331,7 +383,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -339,16 +391,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -776,6 +886,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="134.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5">
+        <v>13</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -889,179 +1427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -1131,7 +1497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -1259,7 +1625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -1322,7 +1688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -1383,7 +1749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1424,7 +1790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1450,7 +1816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -1518,44 +1884,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Тестирование.xlsx
+++ b/Тестирование.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" tabRatio="682"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="682"/>
   </bookViews>
   <sheets>
     <sheet name="Введение" sheetId="15" r:id="rId1"/>
@@ -286,9 +286,6 @@
     <t>MyIllegalArgumentException</t>
   </si>
   <si>
-    <t>Тест состоит из 4 блоков</t>
-  </si>
-  <si>
     <t xml:space="preserve">Предлагается сделать по одному заданию из каждого блока. </t>
   </si>
   <si>
@@ -325,6 +322,9 @@
       </rPr>
       <t xml:space="preserve"> IAYukhnovskiy.SBT@sberbank.ru</t>
     </r>
+  </si>
+  <si>
+    <t>Тест состоит из 5 блоков</t>
   </si>
 </sst>
 </file>
@@ -889,7 +889,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,45 +899,45 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
